--- a/WIP/Documents/UserCaseList.xlsx
+++ b/WIP/Documents/UserCaseList.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WIP/Documents/UserCaseList.xlsx
+++ b/WIP/Documents/UserCaseList.xlsx
@@ -119,9 +119,6 @@
     <t>UC-15</t>
   </si>
   <si>
-    <t>Rider Image</t>
-  </si>
-  <si>
     <t>UC-16</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>User Case</t>
+  </si>
+  <si>
+    <t>Rider Image And Promotion Code</t>
   </si>
 </sst>
 </file>
@@ -635,26 +635,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,125 +819,125 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -956,21 +956,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -1000,156 +1000,156 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/Documents/UserCaseList.xlsx
+++ b/WIP/Documents/UserCaseList.xlsx
@@ -312,12 +312,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -347,10 +353,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +772,7 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -774,7 +783,7 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -818,7 +827,7 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1060,7 +1069,7 @@
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
     </row>

--- a/WIP/Documents/UserCaseList.xlsx
+++ b/WIP/Documents/UserCaseList.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
